--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326933.7058949139</v>
+        <v>324464.3287253304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7317847.948514871</v>
+        <v>7317847.948514873</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12357355.27447214</v>
+        <v>12357355.27447215</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.59788277992273</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>27.59002526031614</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F5" t="n">
-        <v>14.64859342531021</v>
+        <v>26.59788277992272</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>23.55470292302859</v>
       </c>
       <c r="I6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
+        <v>19.72731862540289</v>
+      </c>
+      <c r="R7" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>25.04785205983618</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>19.93169026592149</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>243.2371555999104</v>
       </c>
       <c r="E11" t="n">
-        <v>270.4844840514851</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>99.23591543158665</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.24344843110183</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>191.4400228999703</v>
       </c>
       <c r="T13" t="n">
-        <v>57.18882079493864</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U13" t="n">
         <v>286.217068244951</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>199.053103830851</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>114.058750603223</v>
       </c>
       <c r="T14" t="n">
-        <v>204.8536916333294</v>
+        <v>204.8536916333281</v>
       </c>
       <c r="U14" t="n">
         <v>251.012272523036</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.1216923135604</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>99.23591543158665</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>191.4400228999703</v>
+        <v>63.45391946556213</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.217068244951</v>
       </c>
       <c r="V16" t="n">
-        <v>235.12937552103</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>119.5164998485107</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>166.1216923135604</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.6075113264339</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>99.23591543158665</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.02787955304848</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.9586356909884</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.217068244951</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174135</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.2720904084525</v>
       </c>
       <c r="H22" t="n">
         <v>145.6075113264339</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.6854677983612</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.9586356909884</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>99.23591543158665</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>191.4400228999703</v>
       </c>
       <c r="T25" t="n">
-        <v>42.72833644774909</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U25" t="n">
         <v>286.217068244951</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>60.92605613036407</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.020029200171787</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.6075113264339</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.23591543158665</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.24344843110183</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T28" t="n">
         <v>219.9586356909884</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.217068244951</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>140.7452419768069</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>49.72098829530441</v>
       </c>
       <c r="S31" t="n">
-        <v>191.4400228999703</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>108.5662343439669</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U31" t="n">
         <v>286.217068244951</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,16 +3038,16 @@
         <v>377.6505857696567</v>
       </c>
       <c r="F32" t="n">
-        <v>402.5962614391064</v>
+        <v>402.5962614391063</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8556984025236</v>
+        <v>406.8556984025235</v>
       </c>
       <c r="H32" t="n">
-        <v>292.5171194901834</v>
+        <v>292.5171194901833</v>
       </c>
       <c r="I32" t="n">
-        <v>45.53801420502661</v>
+        <v>45.53801420502654</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.778966300618</v>
+        <v>109.7789663006179</v>
       </c>
       <c r="T32" t="n">
         <v>200.573907330723</v>
       </c>
       <c r="U32" t="n">
-        <v>246.732488220431</v>
+        <v>246.7324882204309</v>
       </c>
       <c r="V32" t="n">
-        <v>323.4724741675299</v>
+        <v>323.4724741675298</v>
       </c>
       <c r="W32" t="n">
-        <v>344.961184414808</v>
+        <v>344.9611844148079</v>
       </c>
       <c r="X32" t="n">
-        <v>365.451316375864</v>
+        <v>365.4513163758639</v>
       </c>
       <c r="Y32" t="n">
         <v>381.9581543534485</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.76102922398285</v>
+        <v>175.5521958793322</v>
       </c>
       <c r="C34" t="n">
-        <v>162.9670367960228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.3356887156073</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1541783439641</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.1412637203262</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8419080109553</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3277270238288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.1602385973652</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>215.6788513883833</v>
       </c>
       <c r="U34" t="n">
-        <v>281.9372839423459</v>
+        <v>238.3400897760312</v>
       </c>
       <c r="V34" t="n">
-        <v>247.857859021223</v>
+        <v>247.8578590212229</v>
       </c>
       <c r="W34" t="n">
-        <v>282.243214033986</v>
+        <v>282.2432140339859</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>221.4298710864321</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>214.3048690494897</v>
       </c>
     </row>
     <row r="35">
@@ -3910,7 +3910,7 @@
         <v>94.10908392625478</v>
       </c>
       <c r="G43" t="n">
-        <v>114.8097282168833</v>
+        <v>114.8097282168839</v>
       </c>
       <c r="H43" t="n">
         <v>94.2955472297574</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.74678650654653</v>
+        <v>62.74678650654654</v>
       </c>
       <c r="T44" t="n">
         <v>153.5417275366516</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93148433442536</v>
+        <v>41.93148433442546</v>
       </c>
       <c r="S46" t="n">
         <v>140.1280588032938</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.53106090472204</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C2" t="n">
-        <v>44.53106090472204</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D2" t="n">
-        <v>44.53106090472204</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E2" t="n">
-        <v>44.53106090472204</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F2" t="n">
-        <v>17.66451264217383</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G2" t="n">
         <v>2.207202020825291</v>
@@ -4334,13 +4334,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L2" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M2" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N2" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O2" t="n">
         <v>110.3601010412646</v>
@@ -4349,31 +4349,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H3" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J3" t="n">
         <v>2.207202020825291</v>
@@ -4413,13 +4413,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L3" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M3" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N3" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O3" t="n">
         <v>83.04597603355158</v>
@@ -4440,19 +4440,19 @@
         <v>54.62267627294912</v>
       </c>
       <c r="U3" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V3" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W3" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X3" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="4">
@@ -4468,13 +4468,13 @@
         <v>22.13378649092923</v>
       </c>
       <c r="D4" t="n">
-        <v>22.13378649092923</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E4" t="n">
-        <v>22.13378649092923</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F4" t="n">
-        <v>22.13378649092923</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G4" t="n">
         <v>2.207202020825291</v>
@@ -4510,16 +4510,16 @@
         <v>105.7399236434024</v>
       </c>
       <c r="R4" t="n">
+        <v>105.7399236434024</v>
+      </c>
+      <c r="S4" t="n">
         <v>77.87121125924466</v>
-      </c>
-      <c r="S4" t="n">
-        <v>50.00249887508694</v>
       </c>
       <c r="T4" t="n">
         <v>50.00249887508694</v>
       </c>
       <c r="U4" t="n">
-        <v>50.00249887508694</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="V4" t="n">
         <v>22.13378649092923</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.53106090472204</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="C5" t="n">
-        <v>44.53106090472204</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="D5" t="n">
-        <v>44.53106090472204</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="E5" t="n">
-        <v>44.53106090472204</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="F5" t="n">
-        <v>29.73450188925718</v>
+        <v>45.53322502633155</v>
       </c>
       <c r="G5" t="n">
-        <v>14.27719126790864</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H5" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J5" t="n">
         <v>2.207202020825291</v>
@@ -4592,25 +4592,25 @@
         <v>100.2684856730375</v>
       </c>
       <c r="S5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X5" t="n">
-        <v>72.39977328887976</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.53106090472204</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.62267627294912</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C6" t="n">
         <v>54.62267627294912</v>
@@ -4629,16 +4629,16 @@
         <v>54.62267627294912</v>
       </c>
       <c r="E6" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F6" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G6" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H6" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I6" t="n">
         <v>2.961334673611005</v>
@@ -4647,22 +4647,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
         <v>29.52132702853827</v>
       </c>
       <c r="M6" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N6" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O6" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P6" t="n">
-        <v>84.14957704396423</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q6" t="n">
         <v>110.3601010412646</v>
@@ -4671,25 +4671,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S6" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T6" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U6" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V6" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W6" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="X6" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="T6" t="n">
+      <c r="Y6" t="n">
         <v>82.49138865710684</v>
-      </c>
-      <c r="U6" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="V6" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="W6" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="X6" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K7" t="n">
         <v>2.207202020825291</v>
@@ -4744,31 +4744,31 @@
         <v>105.7399236434024</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.87121125924466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="R7" t="n">
-        <v>77.87121125924466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="S7" t="n">
-        <v>77.87121125924466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T7" t="n">
-        <v>77.87121125924466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U7" t="n">
-        <v>50.00249887508694</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V7" t="n">
-        <v>50.00249887508694</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.28117035226589</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C8" t="n">
         <v>77.28117035226589</v>
@@ -4808,16 +4808,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
         <v>176.5286895169144</v>
@@ -4826,28 +4826,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="S8" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="T8" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="U8" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="V8" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="W8" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="X8" t="n">
         <v>121.8591222504766</v>
       </c>
-      <c r="S8" t="n">
+      <c r="Y8" t="n">
         <v>121.8591222504766</v>
-      </c>
-      <c r="T8" t="n">
-        <v>121.8591222504766</v>
-      </c>
-      <c r="U8" t="n">
-        <v>121.8591222504766</v>
-      </c>
-      <c r="V8" t="n">
-        <v>121.8591222504766</v>
-      </c>
-      <c r="W8" t="n">
-        <v>121.8591222504766</v>
-      </c>
-      <c r="X8" t="n">
-        <v>77.28117035226589</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.284706443124001</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C9" t="n">
         <v>4.284706443124001</v>
@@ -4890,7 +4890,7 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
         <v>132.8378388614781</v>
@@ -4905,28 +4905,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W9" t="n">
-        <v>93.44061023954541</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X9" t="n">
-        <v>48.8626583413347</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.284706443124001</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.02500997809875</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C10" t="n">
         <v>26.02500997809875</v>
@@ -4981,31 +4981,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V10" t="n">
-        <v>90.73598234693722</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W10" t="n">
         <v>90.73598234693722</v>
       </c>
       <c r="X10" t="n">
-        <v>70.60296187630945</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.60296187630945</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2270.438120644547</v>
+        <v>2270.438120644551</v>
       </c>
       <c r="C11" t="n">
-        <v>1901.475603704134</v>
+        <v>1901.475603704139</v>
       </c>
       <c r="D11" t="n">
-        <v>1543.209905097384</v>
+        <v>1655.781507138573</v>
       </c>
       <c r="E11" t="n">
         <v>1269.993254540328</v>
       </c>
       <c r="F11" t="n">
-        <v>859.0073497507207</v>
+        <v>859.0073497507208</v>
       </c>
       <c r="G11" t="n">
-        <v>443.7189833819039</v>
+        <v>443.718983381904</v>
       </c>
       <c r="H11" t="n">
-        <v>143.924131065956</v>
+        <v>143.9241310659561</v>
       </c>
       <c r="I11" t="n">
-        <v>93.60312247238868</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="J11" t="n">
         <v>431.9269635128007</v>
@@ -5045,46 +5045,46 @@
         <v>1059.731504071699</v>
       </c>
       <c r="L11" t="n">
-        <v>1601.121774915239</v>
+        <v>1545.140499197496</v>
       </c>
       <c r="M11" t="n">
-        <v>2097.495150366211</v>
+        <v>2041.513874648469</v>
       </c>
       <c r="N11" t="n">
-        <v>2606.5141743532</v>
+        <v>2983.506353803322</v>
       </c>
       <c r="O11" t="n">
-        <v>3450.82332282663</v>
+        <v>3450.823322826634</v>
       </c>
       <c r="P11" t="n">
-        <v>4133.747264358649</v>
+        <v>4133.747264358653</v>
       </c>
       <c r="Q11" t="n">
-        <v>4569.372943621695</v>
+        <v>4569.372943621698</v>
       </c>
       <c r="R11" t="n">
-        <v>4680.156123619434</v>
+        <v>4680.156123619437</v>
       </c>
       <c r="S11" t="n">
-        <v>4564.945264424259</v>
+        <v>4564.945264424263</v>
       </c>
       <c r="T11" t="n">
-        <v>4358.022343582514</v>
+        <v>4358.022343582517</v>
       </c>
       <c r="U11" t="n">
-        <v>4104.474593559245</v>
+        <v>4104.474593559249</v>
       </c>
       <c r="V11" t="n">
-        <v>3773.411706215675</v>
+        <v>3773.411706215678</v>
       </c>
       <c r="W11" t="n">
-        <v>3420.64305094556</v>
+        <v>3420.643050945564</v>
       </c>
       <c r="X11" t="n">
-        <v>3047.177292684481</v>
+        <v>3047.177292684484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2657.037960708669</v>
+        <v>2657.037960708672</v>
       </c>
     </row>
     <row r="12">
@@ -5103,19 +5103,19 @@
         <v>640.2281691198264</v>
       </c>
       <c r="E12" t="n">
-        <v>480.9907141143708</v>
+        <v>480.9907141143709</v>
       </c>
       <c r="F12" t="n">
-        <v>334.4561561412558</v>
+        <v>334.4561561412559</v>
       </c>
       <c r="G12" t="n">
-        <v>197.9775306147567</v>
+        <v>197.9775306147568</v>
       </c>
       <c r="H12" t="n">
-        <v>106.3599044948348</v>
+        <v>106.3599044948349</v>
       </c>
       <c r="I12" t="n">
-        <v>93.60312247238868</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="J12" t="n">
         <v>301.4131047627122</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>340.7313683860431</v>
+        <v>410.4523989826888</v>
       </c>
       <c r="C13" t="n">
-        <v>340.7313683860431</v>
+        <v>241.5162160547819</v>
       </c>
       <c r="D13" t="n">
-        <v>340.7313683860431</v>
+        <v>241.5162160547819</v>
       </c>
       <c r="E13" t="n">
-        <v>340.7313683860431</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="F13" t="n">
-        <v>193.8414208881328</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="G13" t="n">
-        <v>193.8414208881328</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="H13" t="n">
-        <v>193.8414208881328</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="I13" t="n">
-        <v>93.60312247238868</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="J13" t="n">
-        <v>132.0145422904557</v>
+        <v>132.0145422904558</v>
       </c>
       <c r="K13" t="n">
         <v>324.9731412870447</v>
@@ -5221,28 +5221,28 @@
         <v>1860.280148808123</v>
       </c>
       <c r="R13" t="n">
-        <v>1766.094847362565</v>
+        <v>1860.280148808123</v>
       </c>
       <c r="S13" t="n">
-        <v>1572.721086857545</v>
+        <v>1666.906388303102</v>
       </c>
       <c r="T13" t="n">
-        <v>1514.954601206092</v>
+        <v>1444.725948211195</v>
       </c>
       <c r="U13" t="n">
-        <v>1225.846451463717</v>
+        <v>1155.61779846882</v>
       </c>
       <c r="V13" t="n">
-        <v>971.1619632578301</v>
+        <v>900.9333102629333</v>
       </c>
       <c r="W13" t="n">
-        <v>971.1619632578301</v>
+        <v>611.5161402259727</v>
       </c>
       <c r="X13" t="n">
-        <v>743.1724123598127</v>
+        <v>611.5161402259727</v>
       </c>
       <c r="Y13" t="n">
-        <v>522.3798332162828</v>
+        <v>410.4523989826888</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2385.307102319228</v>
       </c>
       <c r="C14" t="n">
-        <v>2016.344585378817</v>
+        <v>2016.344585378816</v>
       </c>
       <c r="D14" t="n">
         <v>1658.078886772066</v>
@@ -5264,7 +5264,7 @@
         <v>1272.290634173822</v>
       </c>
       <c r="F14" t="n">
-        <v>861.3047293842144</v>
+        <v>861.3047293842142</v>
       </c>
       <c r="G14" t="n">
         <v>446.0163630153975</v>
@@ -5273,40 +5273,40 @@
         <v>146.2215106994496</v>
       </c>
       <c r="I14" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J14" t="n">
         <v>434.2243431462943</v>
       </c>
       <c r="K14" t="n">
-        <v>741.1249252597399</v>
+        <v>1062.028883705193</v>
       </c>
       <c r="L14" t="n">
-        <v>1158.763997235247</v>
+        <v>1647.964537882134</v>
       </c>
       <c r="M14" t="n">
-        <v>2100.155770844123</v>
+        <v>2589.35631149101</v>
       </c>
       <c r="N14" t="n">
-        <v>3042.148249998977</v>
+        <v>3098.375335477999</v>
       </c>
       <c r="O14" t="n">
-        <v>3565.692304501312</v>
+        <v>3565.692304501311</v>
       </c>
       <c r="P14" t="n">
-        <v>4248.616246033331</v>
+        <v>4248.61624603333</v>
       </c>
       <c r="Q14" t="n">
-        <v>4684.241925296376</v>
+        <v>4684.241925296375</v>
       </c>
       <c r="R14" t="n">
-        <v>4795.025105294116</v>
+        <v>4795.025105294115</v>
       </c>
       <c r="S14" t="n">
         <v>4679.81424609894</v>
       </c>
       <c r="T14" t="n">
-        <v>4472.891325257194</v>
+        <v>4472.891325257195</v>
       </c>
       <c r="U14" t="n">
         <v>4219.343575233926</v>
@@ -5340,10 +5340,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E15" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F15" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G15" t="n">
         <v>200.2749102482504</v>
@@ -5352,28 +5352,28 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I15" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J15" t="n">
-        <v>178.880359409201</v>
+        <v>303.7104843962058</v>
       </c>
       <c r="K15" t="n">
-        <v>398.8609771027104</v>
+        <v>523.6911020897152</v>
       </c>
       <c r="L15" t="n">
-        <v>913.1468660893561</v>
+        <v>865.8047310281538</v>
       </c>
       <c r="M15" t="n">
-        <v>1331.734202775381</v>
+        <v>1284.392067714179</v>
       </c>
       <c r="N15" t="n">
-        <v>1775.808945633739</v>
+        <v>1728.466810572537</v>
       </c>
       <c r="O15" t="n">
-        <v>2159.830783107391</v>
+        <v>2112.488648046188</v>
       </c>
       <c r="P15" t="n">
-        <v>2448.709097399955</v>
+        <v>2401.366962338752</v>
       </c>
       <c r="Q15" t="n">
         <v>2591.897403837273</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.8515833096363</v>
+        <v>877.5560547320448</v>
       </c>
       <c r="C16" t="n">
-        <v>511.8515833096363</v>
+        <v>708.6198718041379</v>
       </c>
       <c r="D16" t="n">
-        <v>511.8515833096363</v>
+        <v>558.5032323918022</v>
       </c>
       <c r="E16" t="n">
-        <v>363.9384897272429</v>
+        <v>410.590138809409</v>
       </c>
       <c r="F16" t="n">
-        <v>363.9384897272429</v>
+        <v>263.7001913114988</v>
       </c>
       <c r="G16" t="n">
-        <v>196.1388005216264</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="H16" t="n">
-        <v>196.1388005216264</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="I16" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J16" t="n">
-        <v>134.3119219239495</v>
+        <v>134.3119219239493</v>
       </c>
       <c r="K16" t="n">
-        <v>327.2705209205385</v>
+        <v>327.2705209205383</v>
       </c>
       <c r="L16" t="n">
-        <v>629.7175289186662</v>
+        <v>629.7175289186659</v>
       </c>
       <c r="M16" t="n">
-        <v>958.9946157475349</v>
+        <v>958.9946157475347</v>
       </c>
       <c r="N16" t="n">
         <v>1285.876845843943</v>
@@ -5452,7 +5452,7 @@
         <v>1571.789197245564</v>
       </c>
       <c r="P16" t="n">
-        <v>1792.915924525763</v>
+        <v>1792.915924525762</v>
       </c>
       <c r="Q16" t="n">
         <v>1862.577528441617</v>
@@ -5461,25 +5461,25 @@
         <v>1862.577528441617</v>
       </c>
       <c r="S16" t="n">
-        <v>1669.203767936596</v>
+        <v>1798.482660294584</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.203767936596</v>
+        <v>1576.302220202677</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.203767936596</v>
+        <v>1287.194070460302</v>
       </c>
       <c r="V16" t="n">
-        <v>1431.699348218384</v>
+        <v>1287.194070460302</v>
       </c>
       <c r="W16" t="n">
-        <v>1142.282178181423</v>
+        <v>1287.194070460302</v>
       </c>
       <c r="X16" t="n">
-        <v>914.2926272834061</v>
+        <v>1059.204519562285</v>
       </c>
       <c r="Y16" t="n">
-        <v>693.500048139876</v>
+        <v>1059.204519562285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2385.307102319227</v>
+        <v>2385.307102319228</v>
       </c>
       <c r="C17" t="n">
-        <v>2016.344585378815</v>
+        <v>2016.344585378816</v>
       </c>
       <c r="D17" t="n">
-        <v>1658.078886772065</v>
+        <v>1658.078886772066</v>
       </c>
       <c r="E17" t="n">
-        <v>1272.290634173821</v>
+        <v>1272.290634173822</v>
       </c>
       <c r="F17" t="n">
-        <v>861.3047293842133</v>
+        <v>861.3047293842142</v>
       </c>
       <c r="G17" t="n">
         <v>446.0163630153975</v>
@@ -5516,22 +5516,22 @@
         <v>434.2243431462943</v>
       </c>
       <c r="K17" t="n">
-        <v>741.1249252597399</v>
+        <v>853.333286456509</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.248599640193</v>
+        <v>1270.972358432016</v>
       </c>
       <c r="M17" t="n">
-        <v>2513.640373249069</v>
+        <v>2212.364132040892</v>
       </c>
       <c r="N17" t="n">
-        <v>3455.632852403923</v>
+        <v>2721.383156027881</v>
       </c>
       <c r="O17" t="n">
-        <v>3922.949821427235</v>
+        <v>3565.692304501311</v>
       </c>
       <c r="P17" t="n">
-        <v>4287.293041869486</v>
+        <v>4248.61624603333</v>
       </c>
       <c r="Q17" t="n">
         <v>4684.241925296375</v>
@@ -5540,25 +5540,25 @@
         <v>4795.025105294115</v>
       </c>
       <c r="S17" t="n">
-        <v>4679.81424609894</v>
+        <v>4679.814246098939</v>
       </c>
       <c r="T17" t="n">
-        <v>4472.891325257195</v>
+        <v>4472.891325257194</v>
       </c>
       <c r="U17" t="n">
         <v>4219.343575233926</v>
       </c>
       <c r="V17" t="n">
-        <v>3888.280687890355</v>
+        <v>3888.280687890356</v>
       </c>
       <c r="W17" t="n">
-        <v>3535.51203262024</v>
+        <v>3535.512032620241</v>
       </c>
       <c r="X17" t="n">
-        <v>3162.046274359161</v>
+        <v>3162.046274359162</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.906942383349</v>
+        <v>2771.90694238335</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>95.9005021058823</v>
       </c>
       <c r="J18" t="n">
-        <v>303.7104843962058</v>
+        <v>178.880359409201</v>
       </c>
       <c r="K18" t="n">
-        <v>571.0332371509173</v>
+        <v>398.8609771027104</v>
       </c>
       <c r="L18" t="n">
-        <v>913.1468660893561</v>
+        <v>740.9746060411492</v>
       </c>
       <c r="M18" t="n">
-        <v>1331.734202775381</v>
+        <v>1159.561942727174</v>
       </c>
       <c r="N18" t="n">
-        <v>1775.808945633739</v>
+        <v>1603.636685585532</v>
       </c>
       <c r="O18" t="n">
-        <v>2159.830783107391</v>
+        <v>1987.658523059184</v>
       </c>
       <c r="P18" t="n">
-        <v>2448.709097399955</v>
+        <v>2276.536837351748</v>
       </c>
       <c r="Q18" t="n">
         <v>2591.897403837273</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.5901388094092</v>
+        <v>976.9595538345211</v>
       </c>
       <c r="C19" t="n">
-        <v>410.5901388094092</v>
+        <v>808.0233709066142</v>
       </c>
       <c r="D19" t="n">
-        <v>410.5901388094092</v>
+        <v>657.9067314942785</v>
       </c>
       <c r="E19" t="n">
-        <v>410.5901388094092</v>
+        <v>657.9067314942785</v>
       </c>
       <c r="F19" t="n">
-        <v>263.7001913114989</v>
+        <v>511.0167839963681</v>
       </c>
       <c r="G19" t="n">
-        <v>95.9005021058823</v>
+        <v>343.2170947907515</v>
       </c>
       <c r="H19" t="n">
-        <v>95.9005021058823</v>
+        <v>196.1388005216264</v>
       </c>
       <c r="I19" t="n">
         <v>95.9005021058823</v>
       </c>
       <c r="J19" t="n">
-        <v>134.3119219239494</v>
+        <v>134.3119219239491</v>
       </c>
       <c r="K19" t="n">
         <v>327.270520920538</v>
@@ -5680,7 +5680,7 @@
         <v>629.7175289186657</v>
       </c>
       <c r="M19" t="n">
-        <v>958.9946157475345</v>
+        <v>958.9946157475346</v>
       </c>
       <c r="N19" t="n">
         <v>1285.876845843943</v>
@@ -5698,25 +5698,25 @@
         <v>1862.577528441617</v>
       </c>
       <c r="S19" t="n">
-        <v>1806.993811721366</v>
+        <v>1862.577528441617</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.813371629458</v>
+        <v>1862.577528441617</v>
       </c>
       <c r="U19" t="n">
-        <v>1295.705221887083</v>
+        <v>1862.577528441617</v>
       </c>
       <c r="V19" t="n">
-        <v>1041.020733681196</v>
+        <v>1607.89304023573</v>
       </c>
       <c r="W19" t="n">
-        <v>1041.020733681196</v>
+        <v>1318.475870198769</v>
       </c>
       <c r="X19" t="n">
-        <v>813.031182783179</v>
+        <v>1318.475870198769</v>
       </c>
       <c r="Y19" t="n">
-        <v>592.2386036396489</v>
+        <v>1097.683291055239</v>
       </c>
     </row>
     <row r="20">
@@ -5747,34 +5747,34 @@
         <v>146.2215106994496</v>
       </c>
       <c r="I20" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J20" t="n">
         <v>434.2243431462943</v>
       </c>
       <c r="K20" t="n">
-        <v>949.1323931317191</v>
+        <v>1062.028883705193</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.771465107226</v>
+        <v>1715.99075658992</v>
       </c>
       <c r="M20" t="n">
-        <v>2308.163238716103</v>
+        <v>2212.364132040892</v>
       </c>
       <c r="N20" t="n">
-        <v>3250.155717870956</v>
+        <v>2721.383156027881</v>
       </c>
       <c r="O20" t="n">
-        <v>4094.464866344386</v>
+        <v>3565.692304501311</v>
       </c>
       <c r="P20" t="n">
-        <v>4458.808086786637</v>
+        <v>4248.61624603333</v>
       </c>
       <c r="Q20" t="n">
-        <v>4684.241925296376</v>
+        <v>4684.241925296375</v>
       </c>
       <c r="R20" t="n">
-        <v>4795.025105294116</v>
+        <v>4795.025105294115</v>
       </c>
       <c r="S20" t="n">
         <v>4679.81424609894</v>
@@ -5814,10 +5814,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E21" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F21" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G21" t="n">
         <v>200.2749102482504</v>
@@ -5826,7 +5826,7 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I21" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J21" t="n">
         <v>303.7104843962058</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.0316187152501</v>
+        <v>358.4051503229392</v>
       </c>
       <c r="C22" t="n">
-        <v>393.0954357873433</v>
+        <v>358.4051503229392</v>
       </c>
       <c r="D22" t="n">
-        <v>242.9787963750075</v>
+        <v>358.4051503229392</v>
       </c>
       <c r="E22" t="n">
-        <v>242.9787963750074</v>
+        <v>358.4051503229392</v>
       </c>
       <c r="F22" t="n">
-        <v>242.9787963750074</v>
+        <v>358.4051503229392</v>
       </c>
       <c r="G22" t="n">
         <v>242.9787963750074</v>
       </c>
       <c r="H22" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="I22" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J22" t="n">
         <v>134.3119219239494</v>
       </c>
       <c r="K22" t="n">
-        <v>327.2705209205383</v>
+        <v>327.2705209205382</v>
       </c>
       <c r="L22" t="n">
-        <v>629.7175289186659</v>
+        <v>629.7175289186658</v>
       </c>
       <c r="M22" t="n">
         <v>958.9946157475347</v>
@@ -5935,25 +5935,25 @@
         <v>1862.577528441617</v>
       </c>
       <c r="S22" t="n">
-        <v>1737.642712483676</v>
+        <v>1862.577528441617</v>
       </c>
       <c r="T22" t="n">
-        <v>1515.462272391769</v>
+        <v>1640.397088349709</v>
       </c>
       <c r="U22" t="n">
-        <v>1226.354122649394</v>
+        <v>1351.288938607334</v>
       </c>
       <c r="V22" t="n">
-        <v>971.6696344435072</v>
+        <v>1096.604450401447</v>
       </c>
       <c r="W22" t="n">
-        <v>971.6696344435072</v>
+        <v>807.1872803644867</v>
       </c>
       <c r="X22" t="n">
-        <v>743.6800835454899</v>
+        <v>579.1977294664694</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.6800835454899</v>
+        <v>358.4051503229392</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1658.078886772066</v>
       </c>
       <c r="E23" t="n">
-        <v>1272.290634173822</v>
+        <v>1272.290634173821</v>
       </c>
       <c r="F23" t="n">
-        <v>861.3047293842142</v>
+        <v>861.3047293842139</v>
       </c>
       <c r="G23" t="n">
-        <v>446.0163630153975</v>
+        <v>446.0163630153978</v>
       </c>
       <c r="H23" t="n">
         <v>146.2215106994496</v>
       </c>
       <c r="I23" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J23" t="n">
         <v>434.2243431462943</v>
@@ -5993,31 +5993,31 @@
         <v>1062.028883705193</v>
       </c>
       <c r="L23" t="n">
-        <v>1893.152558085646</v>
+        <v>1479.6679556807</v>
       </c>
       <c r="M23" t="n">
-        <v>2389.525933536618</v>
+        <v>2421.059729289576</v>
       </c>
       <c r="N23" t="n">
-        <v>2898.544957523607</v>
+        <v>2930.078753276565</v>
       </c>
       <c r="O23" t="n">
-        <v>3565.692304501312</v>
+        <v>3565.692304501311</v>
       </c>
       <c r="P23" t="n">
-        <v>4248.616246033331</v>
+        <v>4248.61624603333</v>
       </c>
       <c r="Q23" t="n">
-        <v>4684.241925296376</v>
+        <v>4684.241925296375</v>
       </c>
       <c r="R23" t="n">
-        <v>4795.025105294116</v>
+        <v>4795.025105294115</v>
       </c>
       <c r="S23" t="n">
-        <v>4679.814246098941</v>
+        <v>4679.81424609894</v>
       </c>
       <c r="T23" t="n">
-        <v>4472.891325257196</v>
+        <v>4472.891325257195</v>
       </c>
       <c r="U23" t="n">
         <v>4219.343575233926</v>
@@ -6051,10 +6051,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E24" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F24" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G24" t="n">
         <v>200.2749102482504</v>
@@ -6063,7 +6063,7 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I24" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J24" t="n">
         <v>303.7104843962058</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>344.0518941040187</v>
+        <v>392.9070890161285</v>
       </c>
       <c r="C25" t="n">
-        <v>344.0518941040187</v>
+        <v>392.9070890161285</v>
       </c>
       <c r="D25" t="n">
-        <v>344.0518941040187</v>
+        <v>242.7904496037926</v>
       </c>
       <c r="E25" t="n">
-        <v>196.1388005216256</v>
+        <v>242.7904496037926</v>
       </c>
       <c r="F25" t="n">
-        <v>196.1388005216256</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="G25" t="n">
-        <v>196.1388005216256</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="H25" t="n">
-        <v>196.1388005216256</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="I25" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J25" t="n">
-        <v>134.3119219239494</v>
+        <v>134.3119219239493</v>
       </c>
       <c r="K25" t="n">
-        <v>327.2705209205382</v>
+        <v>327.2705209205383</v>
       </c>
       <c r="L25" t="n">
-        <v>629.7175289186658</v>
+        <v>629.7175289186659</v>
       </c>
       <c r="M25" t="n">
-        <v>958.9946157475346</v>
+        <v>958.9946157475347</v>
       </c>
       <c r="N25" t="n">
         <v>1285.876845843943</v>
@@ -6175,22 +6175,22 @@
         <v>1669.203767936596</v>
       </c>
       <c r="T25" t="n">
-        <v>1626.043832130789</v>
+        <v>1447.023327844688</v>
       </c>
       <c r="U25" t="n">
-        <v>1336.935682388414</v>
+        <v>1157.915178102314</v>
       </c>
       <c r="V25" t="n">
-        <v>1082.251194182527</v>
+        <v>903.2306898964275</v>
       </c>
       <c r="W25" t="n">
-        <v>792.8340241455662</v>
+        <v>841.6892190576759</v>
       </c>
       <c r="X25" t="n">
-        <v>564.8444732475489</v>
+        <v>613.6996681596586</v>
       </c>
       <c r="Y25" t="n">
-        <v>344.0518941040187</v>
+        <v>392.9070890161285</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1272.290634173822</v>
       </c>
       <c r="F26" t="n">
-        <v>861.3047293842142</v>
+        <v>861.3047293842144</v>
       </c>
       <c r="G26" t="n">
-        <v>446.0163630153974</v>
+        <v>446.0163630153975</v>
       </c>
       <c r="H26" t="n">
         <v>146.2215106994496</v>
       </c>
       <c r="I26" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J26" t="n">
-        <v>266.8186941259413</v>
+        <v>434.2243431462943</v>
       </c>
       <c r="K26" t="n">
-        <v>573.7192762393869</v>
+        <v>1062.028883705193</v>
       </c>
       <c r="L26" t="n">
-        <v>1404.84295061984</v>
+        <v>1893.152558085646</v>
       </c>
       <c r="M26" t="n">
-        <v>2346.234724228716</v>
+        <v>2834.544331694522</v>
       </c>
       <c r="N26" t="n">
-        <v>3288.227203383569</v>
+        <v>3343.563355681511</v>
       </c>
       <c r="O26" t="n">
-        <v>4132.536351856999</v>
+        <v>3884.273025591079</v>
       </c>
       <c r="P26" t="n">
-        <v>4523.867342460889</v>
+        <v>4248.61624603333</v>
       </c>
       <c r="Q26" t="n">
-        <v>4749.301180970629</v>
+        <v>4684.241925296375</v>
       </c>
       <c r="R26" t="n">
-        <v>4795.025105294116</v>
+        <v>4795.025105294115</v>
       </c>
       <c r="S26" t="n">
-        <v>4679.814246098941</v>
+        <v>4679.81424609894</v>
       </c>
       <c r="T26" t="n">
-        <v>4472.891325257196</v>
+        <v>4472.891325257195</v>
       </c>
       <c r="U26" t="n">
         <v>4219.343575233926</v>
@@ -6288,10 +6288,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E27" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F27" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G27" t="n">
         <v>200.2749102482504</v>
@@ -6300,7 +6300,7 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I27" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J27" t="n">
         <v>303.7104843962058</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>661.0967038264776</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="C28" t="n">
-        <v>492.1605208985707</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="D28" t="n">
-        <v>492.1605208985707</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="E28" t="n">
-        <v>344.2474273161776</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2474273161776</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="G28" t="n">
-        <v>343.2170947907516</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="H28" t="n">
-        <v>196.1388005216264</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="I28" t="n">
-        <v>95.90050210588231</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J28" t="n">
-        <v>134.3119219239494</v>
+        <v>134.3119219239493</v>
       </c>
       <c r="K28" t="n">
         <v>327.2705209205383</v>
       </c>
       <c r="L28" t="n">
-        <v>629.7175289186662</v>
+        <v>629.7175289186659</v>
       </c>
       <c r="M28" t="n">
-        <v>958.994615747535</v>
+        <v>958.9946157475347</v>
       </c>
       <c r="N28" t="n">
         <v>1285.876845843943</v>
@@ -6403,31 +6403,31 @@
         <v>1792.915924525762</v>
       </c>
       <c r="Q28" t="n">
-        <v>1862.577528441617</v>
+        <v>1862.577528441616</v>
       </c>
       <c r="R28" t="n">
-        <v>1768.392226996059</v>
+        <v>1862.577528441616</v>
       </c>
       <c r="S28" t="n">
-        <v>1768.392226996059</v>
+        <v>1669.203767936596</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.211786904152</v>
+        <v>1447.023327844688</v>
       </c>
       <c r="U28" t="n">
-        <v>1546.211786904152</v>
+        <v>1157.915178102314</v>
       </c>
       <c r="V28" t="n">
-        <v>1291.527298698265</v>
+        <v>1015.74826701463</v>
       </c>
       <c r="W28" t="n">
-        <v>1291.527298698265</v>
+        <v>726.3310969776692</v>
       </c>
       <c r="X28" t="n">
-        <v>1063.537747800247</v>
+        <v>498.3415460796518</v>
       </c>
       <c r="Y28" t="n">
-        <v>842.7451686567173</v>
+        <v>277.548966936122</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2385.307102319227</v>
+        <v>2385.307102319228</v>
       </c>
       <c r="C29" t="n">
-        <v>2016.344585378815</v>
+        <v>2016.344585378817</v>
       </c>
       <c r="D29" t="n">
-        <v>1658.078886772065</v>
+        <v>1658.078886772066</v>
       </c>
       <c r="E29" t="n">
         <v>1272.290634173822</v>
@@ -6461,25 +6461,25 @@
         <v>95.9005021058823</v>
       </c>
       <c r="J29" t="n">
-        <v>266.8186941259412</v>
+        <v>434.2243431462943</v>
       </c>
       <c r="K29" t="n">
-        <v>894.6232346848399</v>
+        <v>741.1249252597399</v>
       </c>
       <c r="L29" t="n">
-        <v>1725.746909065293</v>
+        <v>1572.248599640193</v>
       </c>
       <c r="M29" t="n">
-        <v>2222.120284516265</v>
+        <v>2513.640373249069</v>
       </c>
       <c r="N29" t="n">
-        <v>3164.112763671118</v>
+        <v>3455.632852403923</v>
       </c>
       <c r="O29" t="n">
-        <v>4008.421912144548</v>
+        <v>3922.949821427235</v>
       </c>
       <c r="P29" t="n">
-        <v>4372.765132586799</v>
+        <v>4287.293041869486</v>
       </c>
       <c r="Q29" t="n">
         <v>4684.241925296375</v>
@@ -6497,16 +6497,16 @@
         <v>4219.343575233926</v>
       </c>
       <c r="V29" t="n">
-        <v>3888.280687890355</v>
+        <v>3888.280687890356</v>
       </c>
       <c r="W29" t="n">
-        <v>3535.51203262024</v>
+        <v>3535.512032620241</v>
       </c>
       <c r="X29" t="n">
-        <v>3162.046274359161</v>
+        <v>3162.046274359162</v>
       </c>
       <c r="Y29" t="n">
-        <v>2771.906942383349</v>
+        <v>2771.90694238335</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>303.7104843962058</v>
       </c>
       <c r="K30" t="n">
-        <v>523.6911020897152</v>
+        <v>571.0332371509173</v>
       </c>
       <c r="L30" t="n">
-        <v>865.8047310281538</v>
+        <v>913.1468660893561</v>
       </c>
       <c r="M30" t="n">
-        <v>1284.392067714179</v>
+        <v>1331.734202775381</v>
       </c>
       <c r="N30" t="n">
-        <v>1728.466810572537</v>
+        <v>1775.808945633739</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.488648046188</v>
+        <v>2159.830783107391</v>
       </c>
       <c r="P30" t="n">
-        <v>2401.366962338752</v>
+        <v>2448.709097399955</v>
       </c>
       <c r="Q30" t="n">
         <v>2591.897403837273</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.9005021058823</v>
+        <v>562.8664180285181</v>
       </c>
       <c r="C31" t="n">
-        <v>95.9005021058823</v>
+        <v>393.9302351006112</v>
       </c>
       <c r="D31" t="n">
-        <v>95.9005021058823</v>
+        <v>243.8135956882754</v>
       </c>
       <c r="E31" t="n">
         <v>95.9005021058823</v>
@@ -6619,7 +6619,7 @@
         <v>95.9005021058823</v>
       </c>
       <c r="J31" t="n">
-        <v>134.3119219239494</v>
+        <v>134.3119219239493</v>
       </c>
       <c r="K31" t="n">
         <v>327.2705209205383</v>
@@ -6643,28 +6643,28 @@
         <v>1862.577528441616</v>
       </c>
       <c r="R31" t="n">
-        <v>1862.577528441616</v>
+        <v>1812.354307941309</v>
       </c>
       <c r="S31" t="n">
-        <v>1669.203767936596</v>
+        <v>1812.354307941309</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.540904962892</v>
+        <v>1590.173867849402</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.432755220517</v>
+        <v>1301.065718107026</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.74826701463</v>
+        <v>1301.065718107026</v>
       </c>
       <c r="W31" t="n">
-        <v>726.3310969776696</v>
+        <v>1011.648548070066</v>
       </c>
       <c r="X31" t="n">
-        <v>498.3415460796523</v>
+        <v>783.6589971720482</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.548966936122</v>
+        <v>562.8664180285181</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2353.722629420185</v>
+        <v>2353.722629420184</v>
       </c>
       <c r="C32" t="n">
-        <v>1989.083126926849</v>
+        <v>1989.083126926848</v>
       </c>
       <c r="D32" t="n">
         <v>1635.140442767174</v>
       </c>
       <c r="E32" t="n">
-        <v>1253.675204616006</v>
+        <v>1253.675204616005</v>
       </c>
       <c r="F32" t="n">
-        <v>847.012314273474</v>
+        <v>847.0123142734737</v>
       </c>
       <c r="G32" t="n">
-        <v>436.046962351733</v>
+        <v>436.0469623517329</v>
       </c>
       <c r="H32" t="n">
         <v>140.5751244828608</v>
       </c>
       <c r="I32" t="n">
-        <v>94.57713033636932</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="J32" t="n">
         <v>432.9009713767813</v>
@@ -6704,46 +6704,46 @@
         <v>1060.70551193568</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.344583911187</v>
+        <v>1891.829186316133</v>
       </c>
       <c r="M32" t="n">
-        <v>1974.717959362159</v>
+        <v>2674.968105408316</v>
       </c>
       <c r="N32" t="n">
-        <v>2655.214567552232</v>
+        <v>3183.987129395305</v>
       </c>
       <c r="O32" t="n">
-        <v>3499.523716025662</v>
+        <v>4028.296277868735</v>
       </c>
       <c r="P32" t="n">
-        <v>4182.447657557681</v>
+        <v>4392.639498310986</v>
       </c>
       <c r="Q32" t="n">
-        <v>4618.073336820727</v>
+        <v>4618.073336820726</v>
       </c>
       <c r="R32" t="n">
-        <v>4728.856516818466</v>
+        <v>4728.856516818465</v>
       </c>
       <c r="S32" t="n">
-        <v>4617.968672070367</v>
+        <v>4617.968672070366</v>
       </c>
       <c r="T32" t="n">
         <v>4415.368765675697</v>
       </c>
       <c r="U32" t="n">
-        <v>4166.144030099505</v>
+        <v>4166.144030099503</v>
       </c>
       <c r="V32" t="n">
-        <v>3839.404157203009</v>
+        <v>3839.404157203008</v>
       </c>
       <c r="W32" t="n">
-        <v>3490.958516379971</v>
+        <v>3490.95851637997</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.815772565967</v>
+        <v>3121.815772565966</v>
       </c>
       <c r="Y32" t="n">
-        <v>2735.999455037231</v>
+        <v>2735.99945503723</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>198.9515384787374</v>
       </c>
       <c r="H33" t="n">
-        <v>107.3339123588155</v>
+        <v>107.3339123588154</v>
       </c>
       <c r="I33" t="n">
-        <v>94.57713033636932</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="J33" t="n">
         <v>302.3871126266928</v>
       </c>
       <c r="K33" t="n">
-        <v>522.3677303202021</v>
+        <v>569.7098653814044</v>
       </c>
       <c r="L33" t="n">
-        <v>864.4813592586409</v>
+        <v>911.8234943198431</v>
       </c>
       <c r="M33" t="n">
-        <v>1283.068695944666</v>
+        <v>1330.410831005868</v>
       </c>
       <c r="N33" t="n">
-        <v>1727.143438803024</v>
+        <v>1774.485573864226</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.165276276675</v>
+        <v>2158.507411337878</v>
       </c>
       <c r="P33" t="n">
-        <v>2400.043590569239</v>
+        <v>2447.385725630442</v>
       </c>
       <c r="Q33" t="n">
         <v>2590.57403206776</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>997.3728905492023</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="C34" t="n">
-        <v>832.7597220683712</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="D34" t="n">
-        <v>686.9660971031112</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="E34" t="n">
-        <v>543.3760179677939</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="F34" t="n">
-        <v>400.8090849169594</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="G34" t="n">
-        <v>237.3324101584186</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="H34" t="n">
-        <v>94.57713033636932</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="I34" t="n">
-        <v>94.57713033636932</v>
+        <v>94.57713033636931</v>
       </c>
       <c r="J34" t="n">
         <v>137.2255366140154</v>
@@ -6865,7 +6865,7 @@
         <v>641.10511652789</v>
       </c>
       <c r="M34" t="n">
-        <v>974.6191898163379</v>
+        <v>974.6191898163378</v>
       </c>
       <c r="N34" t="n">
         <v>1305.738406372325</v>
@@ -6877,31 +6877,31 @@
         <v>1821.251457973302</v>
       </c>
       <c r="Q34" t="n">
-        <v>1895.150048348735</v>
+        <v>1895.150048348736</v>
       </c>
       <c r="R34" t="n">
-        <v>1895.150048348735</v>
+        <v>1895.150048348736</v>
       </c>
       <c r="S34" t="n">
-        <v>1895.150048348735</v>
+        <v>1706.099302290791</v>
       </c>
       <c r="T34" t="n">
-        <v>1895.150048348735</v>
+        <v>1488.241876645959</v>
       </c>
       <c r="U34" t="n">
-        <v>1610.364913053437</v>
+        <v>1247.494311215625</v>
       </c>
       <c r="V34" t="n">
-        <v>1360.003439294625</v>
+        <v>997.1328374568138</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.909283704741</v>
+        <v>712.038681866929</v>
       </c>
       <c r="X34" t="n">
-        <v>1074.909283704741</v>
+        <v>488.3721454159875</v>
       </c>
       <c r="Y34" t="n">
-        <v>1074.909283704741</v>
+        <v>271.9025807195332</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>2008.168886133742</v>
       </c>
       <c r="C35" t="n">
-        <v>1691.036635957651</v>
+        <v>1691.03663595765</v>
       </c>
       <c r="D35" t="n">
-        <v>1384.60120411522</v>
+        <v>1384.601204115219</v>
       </c>
       <c r="E35" t="n">
         <v>1050.643218281295</v>
       </c>
       <c r="F35" t="n">
-        <v>691.4875802560074</v>
+        <v>691.4875802560068</v>
       </c>
       <c r="G35" t="n">
         <v>328.0294806515097</v>
       </c>
       <c r="H35" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="I35" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="J35" t="n">
-        <v>418.3887361402935</v>
+        <v>250.9830871199404</v>
       </c>
       <c r="K35" t="n">
-        <v>725.2893182537391</v>
+        <v>878.787627678839</v>
       </c>
       <c r="L35" t="n">
-        <v>1142.928390229246</v>
+        <v>1296.426699654346</v>
       </c>
       <c r="M35" t="n">
-        <v>1639.301765680218</v>
+        <v>1792.800075105318</v>
       </c>
       <c r="N35" t="n">
-        <v>2148.320789667207</v>
+        <v>2301.819099092307</v>
       </c>
       <c r="O35" t="n">
-        <v>2773.911954201269</v>
+        <v>2838.971209875521</v>
       </c>
       <c r="P35" t="n">
-        <v>3456.835895733288</v>
+        <v>3521.89515140754</v>
       </c>
       <c r="Q35" t="n">
-        <v>3892.461574996333</v>
+        <v>3957.520830670585</v>
       </c>
       <c r="R35" t="n">
-        <v>4003.244754994073</v>
+        <v>4003.244754994072</v>
       </c>
       <c r="S35" t="n">
-        <v>3939.864162563218</v>
+        <v>3939.864162563217</v>
       </c>
       <c r="T35" t="n">
-        <v>3784.771508485792</v>
+        <v>3784.771508485791</v>
       </c>
       <c r="U35" t="n">
         <v>3583.054025226842</v>
@@ -6980,7 +6980,7 @@
         <v>2681.247524645037</v>
       </c>
       <c r="Y35" t="n">
-        <v>2342.938459433545</v>
+        <v>2342.938459433544</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>184.4393032422495</v>
       </c>
       <c r="H36" t="n">
-        <v>92.8216771223276</v>
+        <v>92.82167712232757</v>
       </c>
       <c r="I36" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="J36" t="n">
-        <v>287.874877390205</v>
+        <v>287.8748773902049</v>
       </c>
       <c r="K36" t="n">
-        <v>507.8554950837143</v>
+        <v>555.1976301449165</v>
       </c>
       <c r="L36" t="n">
-        <v>849.969124022153</v>
+        <v>897.3112590833553</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.556460708178</v>
+        <v>1315.89859576938</v>
       </c>
       <c r="N36" t="n">
-        <v>1712.631203566536</v>
+        <v>1759.973338627738</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.653041040187</v>
+        <v>2143.99517610139</v>
       </c>
       <c r="P36" t="n">
-        <v>2385.531355332751</v>
+        <v>2432.873490393954</v>
       </c>
       <c r="Q36" t="n">
         <v>2576.061796831272</v>
@@ -7078,28 +7078,28 @@
         <v>530.8328842490721</v>
       </c>
       <c r="E37" t="n">
-        <v>434.7500574309986</v>
+        <v>434.7500574309987</v>
       </c>
       <c r="F37" t="n">
-        <v>339.6903766974079</v>
+        <v>339.690376697408</v>
       </c>
       <c r="G37" t="n">
-        <v>223.720954256111</v>
+        <v>223.7209542561111</v>
       </c>
       <c r="H37" t="n">
         <v>128.4729267513056</v>
       </c>
       <c r="I37" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="J37" t="n">
-        <v>169.2751593736583</v>
+        <v>169.2751593736582</v>
       </c>
       <c r="K37" t="n">
-        <v>413.0326028259565</v>
+        <v>413.0326028259568</v>
       </c>
       <c r="L37" t="n">
-        <v>766.2784552797939</v>
+        <v>766.2784552797941</v>
       </c>
       <c r="M37" t="n">
         <v>1146.354386564372</v>
@@ -7120,10 +7120,10 @@
         <v>2210.777642400055</v>
       </c>
       <c r="S37" t="n">
-        <v>2069.234148659354</v>
+        <v>2069.234148659355</v>
       </c>
       <c r="T37" t="n">
-        <v>1898.883975331766</v>
+        <v>1898.883975331767</v>
       </c>
       <c r="U37" t="n">
         <v>1661.606092353712</v>
@@ -7151,73 +7151,73 @@
         <v>2008.168886133742</v>
       </c>
       <c r="C38" t="n">
-        <v>1691.036635957651</v>
+        <v>1691.03663595765</v>
       </c>
       <c r="D38" t="n">
-        <v>1384.60120411522</v>
+        <v>1384.601204115219</v>
       </c>
       <c r="E38" t="n">
         <v>1050.643218281295</v>
       </c>
       <c r="F38" t="n">
-        <v>691.4875802560074</v>
+        <v>691.4875802560068</v>
       </c>
       <c r="G38" t="n">
         <v>328.0294806515097</v>
       </c>
       <c r="H38" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="I38" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="J38" t="n">
-        <v>250.9830871199404</v>
+        <v>320.8182288798426</v>
       </c>
       <c r="K38" t="n">
-        <v>557.8836692333859</v>
+        <v>948.6227694387413</v>
       </c>
       <c r="L38" t="n">
-        <v>975.5227412088929</v>
+        <v>1366.261841414248</v>
       </c>
       <c r="M38" t="n">
-        <v>1916.914514817769</v>
+        <v>1862.63521686522</v>
       </c>
       <c r="N38" t="n">
-        <v>2425.933538804758</v>
+        <v>2371.654240852209</v>
       </c>
       <c r="O38" t="n">
-        <v>2984.103794954575</v>
+        <v>2838.971209875521</v>
       </c>
       <c r="P38" t="n">
-        <v>3667.027736486593</v>
+        <v>3521.89515140754</v>
       </c>
       <c r="Q38" t="n">
-        <v>3892.461574996333</v>
+        <v>3957.520830670585</v>
       </c>
       <c r="R38" t="n">
-        <v>4003.244754994073</v>
+        <v>4003.244754994072</v>
       </c>
       <c r="S38" t="n">
-        <v>3939.864162563218</v>
+        <v>3939.864162563217</v>
       </c>
       <c r="T38" t="n">
-        <v>3784.771508485792</v>
+        <v>3784.771508485791</v>
       </c>
       <c r="U38" t="n">
         <v>3583.054025226842</v>
       </c>
       <c r="V38" t="n">
-        <v>3303.821404647591</v>
+        <v>3303.82140464759</v>
       </c>
       <c r="W38" t="n">
-        <v>3002.883016141797</v>
+        <v>3002.883016141796</v>
       </c>
       <c r="X38" t="n">
-        <v>2681.247524645037</v>
+        <v>2681.247524645036</v>
       </c>
       <c r="Y38" t="n">
-        <v>2342.938459433545</v>
+        <v>2342.938459433544</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>184.4393032422495</v>
       </c>
       <c r="H39" t="n">
-        <v>92.8216771223276</v>
+        <v>92.82167712232757</v>
       </c>
       <c r="I39" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="J39" t="n">
-        <v>287.874877390205</v>
+        <v>287.8748773902049</v>
       </c>
       <c r="K39" t="n">
-        <v>507.8554950837143</v>
+        <v>555.1976301449165</v>
       </c>
       <c r="L39" t="n">
-        <v>849.969124022153</v>
+        <v>897.3112590833553</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.556460708178</v>
+        <v>1315.89859576938</v>
       </c>
       <c r="N39" t="n">
-        <v>1712.631203566536</v>
+        <v>1759.973338627738</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.653041040187</v>
+        <v>2143.99517610139</v>
       </c>
       <c r="P39" t="n">
-        <v>2385.531355332751</v>
+        <v>2432.873490393954</v>
       </c>
       <c r="Q39" t="n">
         <v>2576.061796831272</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>746.2251730606754</v>
+        <v>746.2251730606755</v>
       </c>
       <c r="C40" t="n">
-        <v>629.1192568970881</v>
+        <v>629.1192568970882</v>
       </c>
       <c r="D40" t="n">
-        <v>530.8328842490721</v>
+        <v>530.8328842490722</v>
       </c>
       <c r="E40" t="n">
-        <v>434.7500574309986</v>
+        <v>434.7500574309988</v>
       </c>
       <c r="F40" t="n">
-        <v>339.6903766974079</v>
+        <v>339.6903766974081</v>
       </c>
       <c r="G40" t="n">
-        <v>223.720954256111</v>
+        <v>223.7209542561112</v>
       </c>
       <c r="H40" t="n">
-        <v>128.4729267513055</v>
+        <v>128.4729267513057</v>
       </c>
       <c r="I40" t="n">
-        <v>80.06489509988147</v>
+        <v>80.06489509988144</v>
       </c>
       <c r="J40" t="n">
-        <v>169.2751593736583</v>
+        <v>169.2751593736581</v>
       </c>
       <c r="K40" t="n">
-        <v>413.0326028259569</v>
+        <v>413.0326028259567</v>
       </c>
       <c r="L40" t="n">
-        <v>766.2784552797943</v>
+        <v>766.2784552797941</v>
       </c>
       <c r="M40" t="n">
         <v>1146.354386564373</v>
@@ -7345,7 +7345,7 @@
         <v>1524.035461116491</v>
       </c>
       <c r="O40" t="n">
-        <v>1860.746656973822</v>
+        <v>1860.746656973821</v>
       </c>
       <c r="P40" t="n">
         <v>2132.67222870973</v>
@@ -7354,7 +7354,7 @@
         <v>2253.132677081293</v>
       </c>
       <c r="R40" t="n">
-        <v>2210.777642400055</v>
+        <v>2210.777642400056</v>
       </c>
       <c r="S40" t="n">
         <v>2069.234148659355</v>
@@ -7366,10 +7366,10 @@
         <v>1661.606092353712</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.751870912144</v>
+        <v>1458.751870912145</v>
       </c>
       <c r="W40" t="n">
-        <v>1221.164967639503</v>
+        <v>1221.164967639504</v>
       </c>
       <c r="X40" t="n">
         <v>1045.005683505806</v>
@@ -7388,16 +7388,16 @@
         <v>2008.168886133742</v>
       </c>
       <c r="C41" t="n">
-        <v>1691.03663595765</v>
+        <v>1691.036635957651</v>
       </c>
       <c r="D41" t="n">
-        <v>1384.601204115219</v>
+        <v>1384.60120411522</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.643218281294</v>
+        <v>1050.643218281295</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4875802560064</v>
+        <v>691.4875802560072</v>
       </c>
       <c r="G41" t="n">
         <v>328.0294806515097</v>
@@ -7412,19 +7412,19 @@
         <v>418.3887361402934</v>
       </c>
       <c r="K41" t="n">
-        <v>725.289318253739</v>
+        <v>1046.193276699192</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.928390229246</v>
+        <v>1463.832348674699</v>
       </c>
       <c r="M41" t="n">
-        <v>1797.575961190967</v>
+        <v>1960.205724125671</v>
       </c>
       <c r="N41" t="n">
-        <v>2306.594985177956</v>
+        <v>2469.22474811266</v>
       </c>
       <c r="O41" t="n">
-        <v>2773.911954201268</v>
+        <v>3092.492675291036</v>
       </c>
       <c r="P41" t="n">
         <v>3456.835895733287</v>
@@ -7436,25 +7436,25 @@
         <v>4003.244754994072</v>
       </c>
       <c r="S41" t="n">
-        <v>3939.864162563217</v>
+        <v>3939.864162563218</v>
       </c>
       <c r="T41" t="n">
-        <v>3784.77150848579</v>
+        <v>3784.771508485792</v>
       </c>
       <c r="U41" t="n">
         <v>3583.054025226842</v>
       </c>
       <c r="V41" t="n">
-        <v>3303.82140464759</v>
+        <v>3303.821404647591</v>
       </c>
       <c r="W41" t="n">
-        <v>3002.883016141796</v>
+        <v>3002.883016141797</v>
       </c>
       <c r="X41" t="n">
-        <v>2681.247524645036</v>
+        <v>2681.247524645037</v>
       </c>
       <c r="Y41" t="n">
-        <v>2342.938459433544</v>
+        <v>2342.938459433545</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>746.2251730606757</v>
+        <v>746.2251730606756</v>
       </c>
       <c r="C43" t="n">
-        <v>629.1192568970885</v>
+        <v>629.1192568970883</v>
       </c>
       <c r="D43" t="n">
-        <v>530.8328842490724</v>
+        <v>530.8328842490723</v>
       </c>
       <c r="E43" t="n">
-        <v>434.750057430999</v>
+        <v>434.7500574309989</v>
       </c>
       <c r="F43" t="n">
-        <v>339.6903766974083</v>
+        <v>339.6903766974082</v>
       </c>
       <c r="G43" t="n">
         <v>223.7209542561113</v>
       </c>
       <c r="H43" t="n">
-        <v>128.4729267513058</v>
+        <v>128.4729267513059</v>
       </c>
       <c r="I43" t="n">
         <v>80.06489509988144</v>
@@ -7570,10 +7570,10 @@
         <v>169.2751593736582</v>
       </c>
       <c r="K43" t="n">
-        <v>413.0326028259569</v>
+        <v>413.0326028259568</v>
       </c>
       <c r="L43" t="n">
-        <v>766.2784552797942</v>
+        <v>766.2784552797943</v>
       </c>
       <c r="M43" t="n">
         <v>1146.354386564373</v>
@@ -7582,7 +7582,7 @@
         <v>1524.035461116491</v>
       </c>
       <c r="O43" t="n">
-        <v>1860.746656973822</v>
+        <v>1860.746656973821</v>
       </c>
       <c r="P43" t="n">
         <v>2132.67222870973</v>
@@ -7631,10 +7631,10 @@
         <v>1384.601204115219</v>
       </c>
       <c r="E44" t="n">
-        <v>1050.643218281295</v>
+        <v>1050.643218281294</v>
       </c>
       <c r="F44" t="n">
-        <v>691.4875802560067</v>
+        <v>691.4875802560064</v>
       </c>
       <c r="G44" t="n">
         <v>328.0294806515097</v>
@@ -7646,28 +7646,28 @@
         <v>80.06489509988144</v>
       </c>
       <c r="J44" t="n">
-        <v>418.3887361402934</v>
+        <v>320.8182288798426</v>
       </c>
       <c r="K44" t="n">
-        <v>725.289318253739</v>
+        <v>948.6227694387413</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.928390229246</v>
+        <v>1366.261841414248</v>
       </c>
       <c r="M44" t="n">
-        <v>1639.301765680218</v>
+        <v>1862.63521686522</v>
       </c>
       <c r="N44" t="n">
-        <v>2148.320789667207</v>
+        <v>2371.654240852209</v>
       </c>
       <c r="O44" t="n">
-        <v>2773.911954201268</v>
+        <v>2838.971209875521</v>
       </c>
       <c r="P44" t="n">
-        <v>3456.835895733287</v>
+        <v>3521.89515140754</v>
       </c>
       <c r="Q44" t="n">
-        <v>3892.461574996332</v>
+        <v>3957.520830670585</v>
       </c>
       <c r="R44" t="n">
         <v>4003.244754994072</v>
@@ -7676,13 +7676,13 @@
         <v>3939.864162563217</v>
       </c>
       <c r="T44" t="n">
-        <v>3784.771508485791</v>
+        <v>3784.77150848579</v>
       </c>
       <c r="U44" t="n">
         <v>3583.054025226842</v>
       </c>
       <c r="V44" t="n">
-        <v>3303.821404647591</v>
+        <v>3303.82140464759</v>
       </c>
       <c r="W44" t="n">
         <v>3002.883016141796</v>
@@ -7807,10 +7807,10 @@
         <v>169.2751593736582</v>
       </c>
       <c r="K46" t="n">
-        <v>413.0326028259568</v>
+        <v>413.0326028259569</v>
       </c>
       <c r="L46" t="n">
-        <v>766.2784552797943</v>
+        <v>766.2784552797942</v>
       </c>
       <c r="M46" t="n">
         <v>1146.354386564373</v>
@@ -7828,7 +7828,7 @@
         <v>2253.132677081293</v>
       </c>
       <c r="R46" t="n">
-        <v>2210.777642400056</v>
+        <v>2210.777642400055</v>
       </c>
       <c r="S46" t="n">
         <v>2069.234148659355</v>
@@ -7982,7 +7982,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M2" t="n">
         <v>257.9362584875889</v>
@@ -7991,7 +7991,7 @@
         <v>257.0030888569071</v>
       </c>
       <c r="O2" t="n">
-        <v>256.5734881866366</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8061,16 +8061,16 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O3" t="n">
-        <v>169.0715212093943</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P3" t="n">
         <v>161.5644326746464</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P6" t="n">
         <v>161.5644326746464</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.4570508509713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,10 +8538,10 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
         <v>186.728416823673</v>
@@ -8693,16 +8693,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>125.001210977811</v>
+        <v>68.45446782857584</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>47.82033844565876</v>
+        <v>47.82033844565871</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>169.9965476782159</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>56.79503583739756</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>173.9113737860677</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>47.82033844565927</v>
       </c>
       <c r="R15" t="n">
         <v>7.243888881418485</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>113.3417789866355</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.2475201183331</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>47.82033844565876</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>173.9113737860675</v>
       </c>
       <c r="R18" t="n">
         <v>7.243888881418485</v>
@@ -9401,25 +9401,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>210.1085534060397</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>238.7098999083033</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9641,16 +9641,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>201.8488666205991</v>
+        <v>169.9965476782161</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>74.13404129924811</v>
       </c>
       <c r="P26" t="n">
-        <v>27.26037390064499</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.91207494932988</v>
+        <v>173.2475201183331</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>47.82033844565876</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.82033844565927</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>7.243888881418485</v>
@@ -10352,22 +10352,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>289.6621652941525</v>
       </c>
       <c r="N32" t="n">
-        <v>173.2096810132168</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>47.82033844565882</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.82033844565927</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>7.243888881418485</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>159.8729247583333</v>
+        <v>70.54054723222418</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>47.82033844565882</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.82033844565927</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>7.243888881418485</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>70.5405472322245</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>91.77099709747949</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>47.82033844565882</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>47.82033844565927</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>7.243888881418485</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>159.8729247583325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>157.5262203586502</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>70.5405472322245</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>159.8729247583324</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>111.4458860207725</v>
       </c>
       <c r="E11" t="n">
-        <v>111.4458860207766</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.1216923135604</v>
@@ -23434,7 +23434,7 @@
         <v>145.6075113264339</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>99.23591543158665</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>93.24344843110183</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.7698148960497</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>19.53154952124379</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.779247201773968e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>145.6075113264339</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>99.23591543158665</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>93.24344843110183</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>127.9861034344082</v>
       </c>
       <c r="T16" t="n">
-        <v>219.9586356909884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.217068244951</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>17.008267802798</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>60.3154803334266</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.6075113264339</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>99.23591543158665</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>93.24344843110183</v>
       </c>
       <c r="S19" t="n">
-        <v>136.4121433469218</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.217068244951</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1216923135604</v>
+        <v>51.8496019051081</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>93.24344843110183</v>
       </c>
       <c r="S22" t="n">
-        <v>67.75455510160911</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.1216923135604</v>
@@ -24382,7 +24382,7 @@
         <v>145.6075113264339</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>99.23591543158665</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>177.2302992432393</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>225.5969422062269</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.1016631133886</v>
+        <v>166.1216923135604</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.6075113264339</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.23591543158665</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>93.24344843110183</v>
       </c>
       <c r="S28" t="n">
-        <v>191.4400228999703</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.217068244951</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>111.3924013470211</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>93.24344843110183</v>
+        <v>43.52246013579741</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T31" t="n">
-        <v>111.3924013470214</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.79116665534941</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>162.9670367960227</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>144.3356887156073</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.1541783439641</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>141.1412637203262</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>161.8419080109553</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.3277270238288</v>
       </c>
       <c r="I34" t="n">
-        <v>94.95613112898161</v>
+        <v>94.95613112898155</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.96366412849679</v>
+        <v>88.96366412849673</v>
       </c>
       <c r="S34" t="n">
-        <v>187.1602385973653</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>215.6788513883833</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>43.59719416631468</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>221.4298710864321</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3048690494898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1038028.676205518</v>
+        <v>1038028.676205519</v>
       </c>
     </row>
     <row r="6">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="E2" t="n">
-        <v>371835.2434156382</v>
+        <v>371835.2434156383</v>
       </c>
       <c r="F2" t="n">
         <v>376049.0123660837</v>
       </c>
       <c r="G2" t="n">
+        <v>376049.0123660836</v>
+      </c>
+      <c r="H2" t="n">
         <v>376049.0123660837</v>
       </c>
-      <c r="H2" t="n">
-        <v>376049.0123660839</v>
-      </c>
       <c r="I2" t="n">
-        <v>376049.0123660837</v>
+        <v>376049.0123660835</v>
       </c>
       <c r="J2" t="n">
         <v>376049.0123660837</v>
@@ -26341,19 +26341,19 @@
         <v>376049.0123660837</v>
       </c>
       <c r="L2" t="n">
-        <v>377212.1940563413</v>
+        <v>377212.1940563412</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855346</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>1168982.290765617</v>
       </c>
       <c r="F3" t="n">
-        <v>8228.237460829976</v>
+        <v>8228.23746082965</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3423.827442084026</v>
+        <v>3423.827442084073</v>
       </c>
       <c r="M3" t="n">
-        <v>272999.8982338567</v>
+        <v>272999.8982338569</v>
       </c>
       <c r="N3" t="n">
-        <v>7033.628768658703</v>
+        <v>7033.628768658425</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>392085.4318580095</v>
       </c>
       <c r="E4" t="n">
-        <v>40722.35955612362</v>
+        <v>40722.3595561237</v>
       </c>
       <c r="F4" t="n">
-        <v>42998.73928329874</v>
+        <v>42998.73928329872</v>
       </c>
       <c r="G4" t="n">
         <v>42998.73928329872</v>
       </c>
       <c r="H4" t="n">
-        <v>42998.73928329875</v>
+        <v>42998.73928329872</v>
       </c>
       <c r="I4" t="n">
-        <v>42998.73928329874</v>
+        <v>42998.73928329872</v>
       </c>
       <c r="J4" t="n">
-        <v>42998.73928329874</v>
+        <v>42998.73928329872</v>
       </c>
       <c r="K4" t="n">
-        <v>42998.73928329873</v>
+        <v>42998.73928329872</v>
       </c>
       <c r="L4" t="n">
-        <v>46012.38192674464</v>
+        <v>46012.38192674468</v>
       </c>
       <c r="M4" t="n">
         <v>79093.08390349991</v>
@@ -26454,10 +26454,10 @@
         <v>79093.08390349991</v>
       </c>
       <c r="O4" t="n">
-        <v>79093.08390349989</v>
+        <v>79093.08390349988</v>
       </c>
       <c r="P4" t="n">
-        <v>79093.08390349989</v>
+        <v>79093.08390349991</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>93736.35409997795</v>
+        <v>93736.35409997801</v>
       </c>
       <c r="F5" t="n">
-        <v>95482.36262143312</v>
+        <v>95482.3626214331</v>
       </c>
       <c r="G5" t="n">
         <v>95482.3626214331</v>
       </c>
       <c r="H5" t="n">
-        <v>95482.36262143312</v>
+        <v>95482.3626214331</v>
       </c>
       <c r="I5" t="n">
-        <v>95482.36262143312</v>
+        <v>95482.3626214331</v>
       </c>
       <c r="J5" t="n">
-        <v>95482.36262143312</v>
+        <v>95482.3626214331</v>
       </c>
       <c r="K5" t="n">
         <v>95482.3626214331</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49313.09992425842</v>
+        <v>-49313.09992425831</v>
       </c>
       <c r="C6" t="n">
-        <v>-40067.04788894544</v>
+        <v>-40067.0478889455</v>
       </c>
       <c r="D6" t="n">
-        <v>-43539.91441268004</v>
+        <v>-43539.9144126801</v>
       </c>
       <c r="E6" t="n">
-        <v>-931605.7610060804</v>
+        <v>-931701.337833817</v>
       </c>
       <c r="F6" t="n">
-        <v>229339.673000522</v>
+        <v>229266.2739041041</v>
       </c>
       <c r="G6" t="n">
-        <v>237567.9104613519</v>
+        <v>237494.5113649336</v>
       </c>
       <c r="H6" t="n">
-        <v>237567.910461352</v>
+        <v>237494.5113649337</v>
       </c>
       <c r="I6" t="n">
-        <v>237567.9104613519</v>
+        <v>237494.5113649335</v>
       </c>
       <c r="J6" t="n">
-        <v>230349.1458921417</v>
+        <v>230275.7467957236</v>
       </c>
       <c r="K6" t="n">
-        <v>237567.9104613519</v>
+        <v>237494.5113649337</v>
       </c>
       <c r="L6" t="n">
-        <v>232939.5874243737</v>
+        <v>232872.3103368514</v>
       </c>
       <c r="M6" t="n">
-        <v>-49859.18825833811</v>
+        <v>-49859.18825833817</v>
       </c>
       <c r="N6" t="n">
-        <v>216107.08120686</v>
+        <v>216107.0812068603</v>
       </c>
       <c r="O6" t="n">
         <v>223140.7099755188</v>
       </c>
       <c r="P6" t="n">
-        <v>223140.7099755187</v>
+        <v>223140.7099755188</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="M2" t="n">
         <v>51.31196409667647</v>
@@ -26796,7 +26796,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>1170.039030904858</v>
+        <v>1170.039030904859</v>
       </c>
       <c r="F4" t="n">
         <v>1198.756276323529</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="M2" t="n">
-        <v>47.03217979407144</v>
+        <v>47.03217979407138</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>16.54214711891245</v>
       </c>
       <c r="E4" t="n">
-        <v>1125.90685852563</v>
+        <v>1125.906858525631</v>
       </c>
       <c r="F4" t="n">
-        <v>28.71724541867047</v>
+        <v>28.71724541866934</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>944.5039180695316</v>
+        <v>944.5039180695325</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71724541867047</v>
+        <v>28.71724541866934</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>16.54214711891245</v>
       </c>
       <c r="M4" t="n">
-        <v>1125.90685852563</v>
+        <v>1125.906858525631</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71724541867047</v>
+        <v>28.71724541866934</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>380.2781629617887</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>122.2790926808335</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>88.68074131346788</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>172.5747034345055</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>128.8881543928095</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>148.2636607330559</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27582,19 +27582,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>196.4265727766561</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V4" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,22 +27622,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F5" t="n">
-        <v>392.2274523164012</v>
+        <v>380.2781629617887</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>88.68074131346788</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.57201799137825</v>
+        <v>66.43472462629148</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U7" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.4751462767548</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>134.5834728829491</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>213.5699570555529</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>147.3151308327063</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
-        <v>205.7779651231156</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="C32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="D32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="E32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="F32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="G32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="H32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="I32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="T32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="U32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="V32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="W32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="X32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="C34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="D34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="E34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="F34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="G34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="H34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="I34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="J34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="K34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="L34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="M34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="N34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="O34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="P34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="R34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="S34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="T34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="U34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="V34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="W34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="X34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.279784302605032</v>
+        <v>4.279784302605091</v>
       </c>
     </row>
     <row r="35">
@@ -30645,7 +30645,7 @@
         <v>51.31196409667647</v>
       </c>
       <c r="L43" t="n">
-        <v>51.31196409667647</v>
+        <v>51.31196409667666</v>
       </c>
       <c r="M43" t="n">
         <v>51.31196409667647</v>
@@ -30882,7 +30882,7 @@
         <v>51.31196409667647</v>
       </c>
       <c r="L46" t="n">
-        <v>51.31196409667666</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="M46" t="n">
         <v>51.31196409667647</v>
@@ -34702,7 +34702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M2" t="n">
         <v>27.59002526031614</v>
@@ -34711,7 +34711,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O2" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="P3" t="n">
         <v>27.59002526031614</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M6" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N9" t="n">
-        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
         <v>44.13217237922859</v>
@@ -35413,16 +35413,16 @@
         <v>634.1460005645441</v>
       </c>
       <c r="L11" t="n">
-        <v>546.858859437919</v>
+        <v>490.3121162886839</v>
       </c>
       <c r="M11" t="n">
         <v>501.387247930275</v>
       </c>
       <c r="N11" t="n">
-        <v>514.1606302898876</v>
+        <v>951.5075547018719</v>
       </c>
       <c r="O11" t="n">
-        <v>852.8375237105354</v>
+        <v>472.03734244779</v>
       </c>
       <c r="P11" t="n">
         <v>689.8221631636552</v>
@@ -35647,19 +35647,19 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K14" t="n">
-        <v>310.0005879933794</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L14" t="n">
-        <v>421.857648460108</v>
+        <v>591.8541961383239</v>
       </c>
       <c r="M14" t="n">
         <v>950.9007814231074</v>
       </c>
       <c r="N14" t="n">
-        <v>951.5075547018719</v>
+        <v>514.1606302898876</v>
       </c>
       <c r="O14" t="n">
-        <v>528.8323782851876</v>
+        <v>472.03734244779</v>
       </c>
       <c r="P14" t="n">
         <v>689.8221631636552</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83.81803768011994</v>
+        <v>209.9090730205288</v>
       </c>
       <c r="K15" t="n">
         <v>222.202644134858</v>
       </c>
       <c r="L15" t="n">
-        <v>519.4806959461067</v>
+        <v>345.5693221600391</v>
       </c>
       <c r="M15" t="n">
         <v>422.8154916020456</v>
@@ -35744,7 +35744,7 @@
         <v>291.7962770631962</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.634652966988</v>
+        <v>192.4549914126472</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K17" t="n">
-        <v>310.0005879933794</v>
+        <v>423.3423669800148</v>
       </c>
       <c r="L17" t="n">
-        <v>839.5188630105584</v>
+        <v>421.857648460108</v>
       </c>
       <c r="M17" t="n">
         <v>950.9007814231074</v>
       </c>
       <c r="N17" t="n">
-        <v>951.5075547018719</v>
+        <v>514.1606302898876</v>
       </c>
       <c r="O17" t="n">
-        <v>472.03734244779</v>
+        <v>852.8375237105354</v>
       </c>
       <c r="P17" t="n">
-        <v>368.0234549921726</v>
+        <v>689.8221631636552</v>
       </c>
       <c r="Q17" t="n">
-        <v>400.9584681079692</v>
+        <v>440.0259386495408</v>
       </c>
       <c r="R17" t="n">
         <v>111.902202017919</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>209.9090730205288</v>
+        <v>83.81803768011994</v>
       </c>
       <c r="K18" t="n">
-        <v>270.0229825805167</v>
+        <v>222.202644134858</v>
       </c>
       <c r="L18" t="n">
         <v>345.5693221600391</v>
@@ -35981,7 +35981,7 @@
         <v>291.7962770631962</v>
       </c>
       <c r="Q18" t="n">
-        <v>144.634652966988</v>
+        <v>318.5460267530555</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K20" t="n">
-        <v>520.1091413994191</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L20" t="n">
-        <v>421.857648460108</v>
+        <v>660.5675483684113</v>
       </c>
       <c r="M20" t="n">
-        <v>950.9007814231074</v>
+        <v>501.387247930275</v>
       </c>
       <c r="N20" t="n">
-        <v>951.5075547018719</v>
+        <v>514.1606302898876</v>
       </c>
       <c r="O20" t="n">
         <v>852.8375237105354</v>
       </c>
       <c r="P20" t="n">
-        <v>368.0234549921726</v>
+        <v>689.8221631636552</v>
       </c>
       <c r="Q20" t="n">
-        <v>227.7109479896361</v>
+        <v>440.0259386495408</v>
       </c>
       <c r="R20" t="n">
         <v>111.902202017919</v>
@@ -36361,16 +36361,16 @@
         <v>634.1460005645441</v>
       </c>
       <c r="L23" t="n">
-        <v>839.5188630105584</v>
+        <v>421.857648460108</v>
       </c>
       <c r="M23" t="n">
-        <v>501.387247930275</v>
+        <v>950.9007814231074</v>
       </c>
       <c r="N23" t="n">
         <v>514.1606302898876</v>
       </c>
       <c r="O23" t="n">
-        <v>673.8862090683891</v>
+        <v>642.0338901260061</v>
       </c>
       <c r="P23" t="n">
         <v>689.8221631636552</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>172.6446384041</v>
+        <v>341.7412535761737</v>
       </c>
       <c r="K26" t="n">
-        <v>310.0005879933794</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L26" t="n">
         <v>839.5188630105584</v>
@@ -36604,19 +36604,19 @@
         <v>950.9007814231074</v>
       </c>
       <c r="N26" t="n">
-        <v>951.5075547018719</v>
+        <v>514.1606302898876</v>
       </c>
       <c r="O26" t="n">
-        <v>852.8375237105354</v>
+        <v>546.1713837470381</v>
       </c>
       <c r="P26" t="n">
-        <v>395.2838288928176</v>
+        <v>368.0234549921726</v>
       </c>
       <c r="Q26" t="n">
-        <v>227.7109479896361</v>
+        <v>440.0259386495408</v>
       </c>
       <c r="R26" t="n">
-        <v>46.18578214493652</v>
+        <v>111.902202017919</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>172.6446384041</v>
+        <v>341.7412535761737</v>
       </c>
       <c r="K29" t="n">
-        <v>634.1460005645441</v>
+        <v>310.0005879933794</v>
       </c>
       <c r="L29" t="n">
         <v>839.5188630105584</v>
       </c>
       <c r="M29" t="n">
-        <v>501.387247930275</v>
+        <v>950.9007814231074</v>
       </c>
       <c r="N29" t="n">
         <v>951.5075547018719</v>
       </c>
       <c r="O29" t="n">
-        <v>852.8375237105354</v>
+        <v>472.03734244779</v>
       </c>
       <c r="P29" t="n">
         <v>368.0234549921726</v>
       </c>
       <c r="Q29" t="n">
-        <v>314.623022938966</v>
+        <v>400.9584681079692</v>
       </c>
       <c r="R29" t="n">
         <v>111.902202017919</v>
@@ -36911,7 +36911,7 @@
         <v>209.9090730205288</v>
       </c>
       <c r="K30" t="n">
-        <v>222.202644134858</v>
+        <v>270.0229825805167</v>
       </c>
       <c r="L30" t="n">
         <v>345.5693221600391</v>
@@ -36929,7 +36929,7 @@
         <v>291.7962770631962</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.4549914126472</v>
+        <v>144.634652966988</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,22 +37072,22 @@
         <v>634.1460005645441</v>
       </c>
       <c r="L32" t="n">
-        <v>421.857648460108</v>
+        <v>839.5188630105584</v>
       </c>
       <c r="M32" t="n">
-        <v>501.387247930275</v>
+        <v>791.0494132244274</v>
       </c>
       <c r="N32" t="n">
-        <v>687.3703113031045</v>
+        <v>514.1606302898876</v>
       </c>
       <c r="O32" t="n">
         <v>852.8375237105354</v>
       </c>
       <c r="P32" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921726</v>
       </c>
       <c r="Q32" t="n">
-        <v>440.0259386495408</v>
+        <v>227.7109479896361</v>
       </c>
       <c r="R32" t="n">
         <v>111.902202017919</v>
@@ -37148,7 +37148,7 @@
         <v>209.9090730205288</v>
       </c>
       <c r="K33" t="n">
-        <v>222.202644134858</v>
+        <v>270.0229825805168</v>
       </c>
       <c r="L33" t="n">
         <v>345.5693221600391</v>
@@ -37166,7 +37166,7 @@
         <v>291.7962770631962</v>
       </c>
       <c r="Q33" t="n">
-        <v>192.4549914126472</v>
+        <v>144.634652966988</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.07919826024855</v>
+        <v>43.0791982602486</v>
       </c>
       <c r="K34" t="n">
         <v>199.1874600567353</v>
       </c>
       <c r="L34" t="n">
-        <v>309.781812583542</v>
+        <v>309.7818125835421</v>
       </c>
       <c r="M34" t="n">
-        <v>336.8829023115634</v>
+        <v>336.8829023115635</v>
       </c>
       <c r="N34" t="n">
         <v>334.4638551070577</v>
@@ -37242,10 +37242,10 @@
         <v>293.0801392537375</v>
       </c>
       <c r="P34" t="n">
-        <v>227.6401148886639</v>
+        <v>227.640114888664</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.64504078326597</v>
+        <v>74.64504078326603</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>341.7412535761737</v>
+        <v>172.6446384041</v>
       </c>
       <c r="K35" t="n">
-        <v>310.0005879933794</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L35" t="n">
         <v>421.857648460108</v>
@@ -37318,7 +37318,7 @@
         <v>514.1606302898876</v>
       </c>
       <c r="O35" t="n">
-        <v>631.9102672061233</v>
+        <v>542.5778896800142</v>
       </c>
       <c r="P35" t="n">
         <v>689.8221631636552</v>
@@ -37327,7 +37327,7 @@
         <v>440.0259386495408</v>
       </c>
       <c r="R35" t="n">
-        <v>111.902202017919</v>
+        <v>46.18578214493652</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>209.9090730205288</v>
       </c>
       <c r="K36" t="n">
-        <v>222.202644134858</v>
+        <v>270.0229825805168</v>
       </c>
       <c r="L36" t="n">
         <v>345.5693221600391</v>
@@ -37403,7 +37403,7 @@
         <v>291.7962770631962</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.4549914126472</v>
+        <v>144.634652966988</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.6446384041</v>
+        <v>243.1851856363245</v>
       </c>
       <c r="K38" t="n">
-        <v>310.0005879933794</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L38" t="n">
         <v>421.857648460108</v>
       </c>
       <c r="M38" t="n">
-        <v>950.9007814231074</v>
+        <v>501.387247930275</v>
       </c>
       <c r="N38" t="n">
         <v>514.1606302898876</v>
       </c>
       <c r="O38" t="n">
-        <v>563.8083395452695</v>
+        <v>472.03734244779</v>
       </c>
       <c r="P38" t="n">
         <v>689.8221631636552</v>
       </c>
       <c r="Q38" t="n">
-        <v>227.7109479896361</v>
+        <v>440.0259386495408</v>
       </c>
       <c r="R38" t="n">
-        <v>111.902202017919</v>
+        <v>46.18578214493652</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>209.9090730205288</v>
       </c>
       <c r="K39" t="n">
-        <v>222.202644134858</v>
+        <v>270.0229825805168</v>
       </c>
       <c r="L39" t="n">
         <v>345.5693221600391</v>
@@ -37640,7 +37640,7 @@
         <v>291.7962770631962</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.4549914126472</v>
+        <v>144.634652966988</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K41" t="n">
-        <v>310.0005879933794</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L41" t="n">
         <v>421.857648460108</v>
       </c>
       <c r="M41" t="n">
-        <v>661.2601726886074</v>
+        <v>501.387247930275</v>
       </c>
       <c r="N41" t="n">
         <v>514.1606302898876</v>
       </c>
       <c r="O41" t="n">
-        <v>472.03734244779</v>
+        <v>629.5635628064402</v>
       </c>
       <c r="P41" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921726</v>
       </c>
       <c r="Q41" t="n">
         <v>440.0259386495408</v>
@@ -37941,10 +37941,10 @@
         <v>246.2196398508067</v>
       </c>
       <c r="L43" t="n">
-        <v>356.8139923776135</v>
+        <v>356.8139923776137</v>
       </c>
       <c r="M43" t="n">
-        <v>383.9150821056349</v>
+        <v>383.9150821056348</v>
       </c>
       <c r="N43" t="n">
         <v>381.4960349011291</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>341.7412535761737</v>
+        <v>243.1851856363245</v>
       </c>
       <c r="K44" t="n">
-        <v>310.0005879933794</v>
+        <v>634.1460005645441</v>
       </c>
       <c r="L44" t="n">
         <v>421.857648460108</v>
@@ -38029,7 +38029,7 @@
         <v>514.1606302898876</v>
       </c>
       <c r="O44" t="n">
-        <v>631.9102672061224</v>
+        <v>472.03734244779</v>
       </c>
       <c r="P44" t="n">
         <v>689.8221631636552</v>
@@ -38038,7 +38038,7 @@
         <v>440.0259386495408</v>
       </c>
       <c r="R44" t="n">
-        <v>111.902202017919</v>
+        <v>46.18578214493652</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>246.2196398508067</v>
       </c>
       <c r="L46" t="n">
-        <v>356.8139923776137</v>
+        <v>356.8139923776135</v>
       </c>
       <c r="M46" t="n">
-        <v>383.9150821056348</v>
+        <v>383.9150821056349</v>
       </c>
       <c r="N46" t="n">
         <v>381.4960349011291</v>
